--- a/Guild Digital/Example CHT application/forms/app/community_engagement.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/community_engagement.xlsx
@@ -297,10 +297,10 @@
     <t xml:space="preserve">Please schedule date for next Community engagement session</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= today() and (floor(decimal-date-time(.)) &lt;= (floor(decimal-date-time(today()) + 7)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Appointment should be within the next 7 days</t>
+    <t xml:space="preserve">. &gt;= today() and (floor(decimal-date-time(.)) &lt;= (floor(decimal-date-time(today()) + 30)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule dates within a month</t>
   </si>
   <si>
     <t xml:space="preserve">begin_group</t>
@@ -1372,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C45" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G40" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C2" s="18" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-02-28  13-44</v>
+        <v>2024-03-22  10-51</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>183</v>

--- a/Guild Digital/Example CHT application/forms/app/community_engagement.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/community_engagement.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -351,19 +351,10 @@
     <t xml:space="preserve">group_community_mentorship</t>
   </si>
   <si>
-    <t xml:space="preserve">Results/Summary Page:</t>
+    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_note_Community_mentorship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Mentorship Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 red</t>
   </si>
   <si>
     <r>
@@ -393,10 +384,81 @@
     <t xml:space="preserve">s_note_mentorship_details</t>
   </si>
   <si>
-    <t xml:space="preserve">Session Attendance Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 style="text-align:center; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">background-color: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#FFA500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Session Attendance Details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h4&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">s_people_attended</t>
@@ -471,10 +533,45 @@
     <t xml:space="preserve">s_topics_covered</t>
   </si>
   <si>
-    <t xml:space="preserve">Topics covered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 blue</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 style="text-align:center; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">background-color: #add8e6;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Topics covered &lt;/h4&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">s_topics_covered_value1</t>
@@ -836,7 +933,54 @@
     <t xml:space="preserve">s_takeaways</t>
   </si>
   <si>
-    <t xml:space="preserve">Important takeaways</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 style="text-align:center; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">background-color: #add8e6;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Important takeaways &lt;/h4&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">s_takeaways_value</t>
@@ -887,16 +1031,13 @@
     <t xml:space="preserve">s_followup</t>
   </si>
   <si>
-    <t xml:space="preserve">Follow Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
+    <t xml:space="preserve"> &lt;h4 style="text-align:center;"&gt;Follow Up&lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">s_followup_note</t>
   </si>
   <si>
-    <t xml:space="preserve">A reminder will be displayed 3 days before date of next appointment</t>
+    <t xml:space="preserve">  &lt;h5 style="text-align:center;"&gt;A reminder will be displayed 3 days before date of next appointment&lt;/h5&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -993,7 +1134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1036,6 +1177,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1045,6 +1191,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1106,7 +1259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1147,15 +1300,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1171,19 +1328,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1372,8 +1529,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G40" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B42" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C84" activeCellId="0" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2702,545 +2859,557 @@
       <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="10" t="s">
         <v>109</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="AME57" s="11"/>
+      <c r="AMF57" s="11"/>
+      <c r="AMG57" s="11"/>
+      <c r="AMH57" s="11"/>
+      <c r="AMI57" s="11"/>
+      <c r="AMJ57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="AME58" s="10"/>
-      <c r="AMF58" s="10"/>
-      <c r="AMG58" s="10"/>
-      <c r="AMH58" s="10"/>
-      <c r="AMI58" s="10"/>
-      <c r="AMJ58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="AME58" s="11"/>
+      <c r="AMF58" s="11"/>
+      <c r="AMG58" s="11"/>
+      <c r="AMH58" s="11"/>
+      <c r="AMI58" s="11"/>
+      <c r="AMJ58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="AME59" s="10"/>
-      <c r="AMF59" s="10"/>
-      <c r="AMG59" s="10"/>
-      <c r="AMH59" s="10"/>
-      <c r="AMI59" s="10"/>
-      <c r="AMJ59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="AME59" s="11"/>
+      <c r="AMF59" s="11"/>
+      <c r="AMG59" s="11"/>
+      <c r="AMH59" s="11"/>
+      <c r="AMI59" s="11"/>
+      <c r="AMJ59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="AME60" s="10"/>
-      <c r="AMF60" s="10"/>
-      <c r="AMG60" s="10"/>
-      <c r="AMH60" s="10"/>
-      <c r="AMI60" s="10"/>
-      <c r="AMJ60" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="AME60" s="11"/>
+      <c r="AMF60" s="11"/>
+      <c r="AMG60" s="11"/>
+      <c r="AMH60" s="11"/>
+      <c r="AMI60" s="11"/>
+      <c r="AMJ60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="AME61" s="10"/>
-      <c r="AMF61" s="10"/>
-      <c r="AMG61" s="10"/>
-      <c r="AMH61" s="10"/>
-      <c r="AMI61" s="10"/>
-      <c r="AMJ61" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="AME61" s="11"/>
+      <c r="AMF61" s="11"/>
+      <c r="AMG61" s="11"/>
+      <c r="AMH61" s="11"/>
+      <c r="AMI61" s="11"/>
+      <c r="AMJ61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="AME62" s="10"/>
-      <c r="AMF62" s="10"/>
-      <c r="AMG62" s="10"/>
-      <c r="AMH62" s="10"/>
-      <c r="AMI62" s="10"/>
-      <c r="AMJ62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="AME62" s="11"/>
+      <c r="AMF62" s="11"/>
+      <c r="AMG62" s="11"/>
+      <c r="AMH62" s="11"/>
+      <c r="AMI62" s="11"/>
+      <c r="AMJ62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="AME63" s="10"/>
-      <c r="AMF63" s="10"/>
-      <c r="AMG63" s="10"/>
-      <c r="AMH63" s="10"/>
-      <c r="AMI63" s="10"/>
-      <c r="AMJ63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="AME63" s="11"/>
+      <c r="AMF63" s="11"/>
+      <c r="AMG63" s="11"/>
+      <c r="AMH63" s="11"/>
+      <c r="AMI63" s="11"/>
+      <c r="AMJ63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="AME64" s="10"/>
-      <c r="AMF64" s="10"/>
-      <c r="AMG64" s="10"/>
-      <c r="AMH64" s="10"/>
-      <c r="AMI64" s="10"/>
-      <c r="AMJ64" s="10"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="AME64" s="11"/>
+      <c r="AMF64" s="11"/>
+      <c r="AMG64" s="11"/>
+      <c r="AMH64" s="11"/>
+      <c r="AMI64" s="11"/>
+      <c r="AMJ64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="AME65" s="10"/>
-      <c r="AMF65" s="10"/>
-      <c r="AMG65" s="10"/>
-      <c r="AMH65" s="10"/>
-      <c r="AMI65" s="10"/>
-      <c r="AMJ65" s="10"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="AME65" s="11"/>
+      <c r="AMF65" s="11"/>
+      <c r="AMG65" s="11"/>
+      <c r="AMH65" s="11"/>
+      <c r="AMI65" s="11"/>
+      <c r="AMJ65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="AME66" s="10"/>
-      <c r="AMF66" s="10"/>
-      <c r="AMG66" s="10"/>
-      <c r="AMH66" s="10"/>
-      <c r="AMI66" s="10"/>
-      <c r="AMJ66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="AME66" s="11"/>
+      <c r="AMF66" s="11"/>
+      <c r="AMG66" s="11"/>
+      <c r="AMH66" s="11"/>
+      <c r="AMI66" s="11"/>
+      <c r="AMJ66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="AME67" s="10"/>
-      <c r="AMF67" s="10"/>
-      <c r="AMG67" s="10"/>
-      <c r="AMH67" s="10"/>
-      <c r="AMI67" s="10"/>
-      <c r="AMJ67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="AME67" s="11"/>
+      <c r="AMF67" s="11"/>
+      <c r="AMG67" s="11"/>
+      <c r="AMH67" s="11"/>
+      <c r="AMI67" s="11"/>
+      <c r="AMJ67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="AME68" s="10"/>
-      <c r="AMF68" s="10"/>
-      <c r="AMG68" s="10"/>
-      <c r="AMH68" s="10"/>
-      <c r="AMI68" s="10"/>
-      <c r="AMJ68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="AME68" s="11"/>
+      <c r="AMF68" s="11"/>
+      <c r="AMG68" s="11"/>
+      <c r="AMH68" s="11"/>
+      <c r="AMI68" s="11"/>
+      <c r="AMJ68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="AME69" s="10"/>
-      <c r="AMF69" s="10"/>
-      <c r="AMG69" s="10"/>
-      <c r="AMH69" s="10"/>
-      <c r="AMI69" s="10"/>
-      <c r="AMJ69" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="AME69" s="11"/>
+      <c r="AMF69" s="11"/>
+      <c r="AMG69" s="11"/>
+      <c r="AMH69" s="11"/>
+      <c r="AMI69" s="11"/>
+      <c r="AMJ69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="AME70" s="11"/>
+      <c r="AMF70" s="11"/>
+      <c r="AMG70" s="11"/>
+      <c r="AMH70" s="11"/>
+      <c r="AMI70" s="11"/>
+      <c r="AMJ70" s="11"/>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D71" s="14"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="29.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="AME70" s="10"/>
-      <c r="AMF70" s="10"/>
-      <c r="AMG70" s="10"/>
-      <c r="AMH70" s="10"/>
-      <c r="AMI70" s="10"/>
-      <c r="AMJ70" s="10"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="C72" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="AME71" s="10"/>
-      <c r="AMF71" s="10"/>
-      <c r="AMG71" s="10"/>
-      <c r="AMH71" s="10"/>
-      <c r="AMI71" s="10"/>
-      <c r="AMJ71" s="10"/>
-    </row>
-    <row r="72" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -3256,70 +3425,37 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-    </row>
-    <row r="74" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+    <row r="73" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-    </row>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3378,342 +3514,342 @@
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="23.23"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+    </row>
+    <row r="2" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+    </row>
+    <row r="4" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+    </row>
+    <row r="5" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-    </row>
-    <row r="2" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-    </row>
-    <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-    </row>
-    <row r="4" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-    </row>
-    <row r="5" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-    </row>
-    <row r="6" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-    </row>
-    <row r="7" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="16" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="16" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3734,92 +3870,92 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="37.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="37.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="28.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="AMJ1" s="20"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C2" s="19" t="str">
+        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2024-05-13  13-59</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="AMJ1" s="19"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="18" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-03-22  10-51</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="AMJ2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="AMJ2" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Guild Digital/Example CHT application/forms/app/community_engagement.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/community_engagement.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -346,15 +346,6 @@
   </si>
   <si>
     <t xml:space="preserve">end_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_community_mentorship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
   </si>
   <si>
     <r>
@@ -381,6 +372,9 @@
     <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">field-list summary </t>
+  </si>
+  <si>
     <t xml:space="preserve">s_note_mentorship_details</t>
   </si>
   <si>
@@ -391,55 +385,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">background-color: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#FFA500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -452,13 +398,17 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;/h4&gt;</t>
+      <t xml:space="preserve">&lt;I class="fa fa-user"&gt;&lt;/i&gt; </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
   </si>
   <si>
     <t xml:space="preserve">s_people_attended</t>
@@ -472,7 +422,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;**</t>
+      <t xml:space="preserve">**</t>
     </r>
     <r>
       <rPr>
@@ -481,23 +431,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Number of people who attended**&lt;/h5&gt;</t>
+      <t xml:space="preserve">Number of people who attended**</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">h2 yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">s_people_attended_value</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -526,77 +469,23 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">}&lt;/h5&gt;</t>
+      <t xml:space="preserve">}</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">li</t>
+  </si>
+  <si>
     <t xml:space="preserve">s_topics_covered</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">background-color: #add8e6;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;Topics covered &lt;/h4&gt;</t>
-    </r>
+    <t xml:space="preserve">Topics covered</t>
   </si>
   <si>
     <t xml:space="preserve">s_topics_covered_value1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Hygiene&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Hygiene</t>
   </si>
   <si>
     <r>
@@ -624,26 +513,7 @@
     <t xml:space="preserve">s_topics_covered_value2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Breastfeeding&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Breastfeeding</t>
   </si>
   <si>
     <r>
@@ -671,26 +541,7 @@
     <t xml:space="preserve">s_topics_covered_value3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Communical diseases in U5&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Communical diseases in U5</t>
   </si>
   <si>
     <r>
@@ -718,26 +569,7 @@
     <t xml:space="preserve">s_topics_covered_value4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Covid 19&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Covid 19</t>
   </si>
   <si>
     <r>
@@ -765,35 +597,7 @@
     <t xml:space="preserve">s_topics_covered_value5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Malaria prevention</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Malaria prevention</t>
   </si>
   <si>
     <r>
@@ -821,35 +625,7 @@
     <t xml:space="preserve">s_topics_covered_value6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Danger signs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Danger signs</t>
   </si>
   <si>
     <r>
@@ -877,35 +653,7 @@
     <t xml:space="preserve">s_topics_covered_value7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <r>
@@ -950,52 +698,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h4 style="text-align:center; </t>
+      <t xml:space="preserve">Important takeaways</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">background-color: #add8e6;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;Important takeaways &lt;/h4&gt;</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">s_takeaways_value</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1024,20 +733,23 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">}&lt;/h5&gt;</t>
+      <t xml:space="preserve">}</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">s_followup</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;h4 style="text-align:center;"&gt;Follow Up&lt;/h4&gt;</t>
+    <t xml:space="preserve">Follow Up&lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
   </si>
   <si>
     <t xml:space="preserve">s_followup_note</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;h5 style="text-align:center;"&gt;A reminder will be displayed 3 days before date of next appointment&lt;/h5&gt;</t>
+    <t xml:space="preserve">  &lt;h4 style=""&gt;A reminder will be displayed 3 days before date of next appointment&lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -1061,43 +773,22 @@
     <t xml:space="preserve">hygiene</t>
   </si>
   <si>
-    <t xml:space="preserve">Hygiene</t>
-  </si>
-  <si>
     <t xml:space="preserve">breastfeeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Breastfeeding</t>
-  </si>
-  <si>
     <t xml:space="preserve">communical-diseases-in-U5</t>
   </si>
   <si>
-    <t xml:space="preserve">Communical diseases in U5</t>
-  </si>
-  <si>
     <t xml:space="preserve">covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Covid 19</t>
-  </si>
-  <si>
     <t xml:space="preserve">malaria-prevention</t>
   </si>
   <si>
-    <t xml:space="preserve">Malaria prevention</t>
-  </si>
-  <si>
     <t xml:space="preserve">danger-signs</t>
   </si>
   <si>
-    <t xml:space="preserve">Danger signs</t>
-  </si>
-  <si>
     <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -1177,9 +868,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1189,15 +882,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1300,20 +993,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1321,6 +1014,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1337,10 +1034,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1529,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B42" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C84" activeCellId="0" sqref="C84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2853,120 +2546,1113 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="AME57" s="11"/>
-      <c r="AMF57" s="11"/>
-      <c r="AMG57" s="11"/>
-      <c r="AMH57" s="11"/>
-      <c r="AMI57" s="11"/>
-      <c r="AMJ57" s="11"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="3"/>
+      <c r="AQ57" s="3"/>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="3"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="3"/>
+      <c r="AY57" s="3"/>
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
+      <c r="BC57" s="3"/>
+      <c r="BD57" s="3"/>
+      <c r="BE57" s="3"/>
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="3"/>
+      <c r="BH57" s="3"/>
+      <c r="BI57" s="3"/>
+      <c r="BJ57" s="3"/>
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="3"/>
+      <c r="BM57" s="3"/>
+      <c r="BN57" s="3"/>
+      <c r="BO57" s="3"/>
+      <c r="BP57" s="3"/>
+      <c r="BQ57" s="3"/>
+      <c r="BR57" s="3"/>
+      <c r="BS57" s="3"/>
+      <c r="BT57" s="3"/>
+      <c r="BU57" s="3"/>
+      <c r="BV57" s="3"/>
+      <c r="BW57" s="3"/>
+      <c r="BX57" s="3"/>
+      <c r="BY57" s="3"/>
+      <c r="BZ57" s="3"/>
+      <c r="CA57" s="3"/>
+      <c r="CB57" s="3"/>
+      <c r="CC57" s="3"/>
+      <c r="CD57" s="3"/>
+      <c r="CE57" s="3"/>
+      <c r="CF57" s="3"/>
+      <c r="CG57" s="3"/>
+      <c r="CH57" s="3"/>
+      <c r="CI57" s="3"/>
+      <c r="CJ57" s="3"/>
+      <c r="CK57" s="3"/>
+      <c r="CL57" s="3"/>
+      <c r="CM57" s="3"/>
+      <c r="CN57" s="3"/>
+      <c r="CO57" s="3"/>
+      <c r="CP57" s="3"/>
+      <c r="CQ57" s="3"/>
+      <c r="CR57" s="3"/>
+      <c r="CS57" s="3"/>
+      <c r="CT57" s="3"/>
+      <c r="CU57" s="3"/>
+      <c r="CV57" s="3"/>
+      <c r="CW57" s="3"/>
+      <c r="CX57" s="3"/>
+      <c r="CY57" s="3"/>
+      <c r="CZ57" s="3"/>
+      <c r="DA57" s="3"/>
+      <c r="DB57" s="3"/>
+      <c r="DC57" s="3"/>
+      <c r="DD57" s="3"/>
+      <c r="DE57" s="3"/>
+      <c r="DF57" s="3"/>
+      <c r="DG57" s="3"/>
+      <c r="DH57" s="3"/>
+      <c r="DI57" s="3"/>
+      <c r="DJ57" s="3"/>
+      <c r="DK57" s="3"/>
+      <c r="DL57" s="3"/>
+      <c r="DM57" s="3"/>
+      <c r="DN57" s="3"/>
+      <c r="DO57" s="3"/>
+      <c r="DP57" s="3"/>
+      <c r="DQ57" s="3"/>
+      <c r="DR57" s="3"/>
+      <c r="DS57" s="3"/>
+      <c r="DT57" s="3"/>
+      <c r="DU57" s="3"/>
+      <c r="DV57" s="3"/>
+      <c r="DW57" s="3"/>
+      <c r="DX57" s="3"/>
+      <c r="DY57" s="3"/>
+      <c r="DZ57" s="3"/>
+      <c r="EA57" s="3"/>
+      <c r="EB57" s="3"/>
+      <c r="EC57" s="3"/>
+      <c r="ED57" s="3"/>
+      <c r="EE57" s="3"/>
+      <c r="EF57" s="3"/>
+      <c r="EG57" s="3"/>
+      <c r="EH57" s="3"/>
+      <c r="EI57" s="3"/>
+      <c r="EJ57" s="3"/>
+      <c r="EK57" s="3"/>
+      <c r="EL57" s="3"/>
+      <c r="EM57" s="3"/>
+      <c r="EN57" s="3"/>
+      <c r="EO57" s="3"/>
+      <c r="EP57" s="3"/>
+      <c r="EQ57" s="3"/>
+      <c r="ER57" s="3"/>
+      <c r="ES57" s="3"/>
+      <c r="ET57" s="3"/>
+      <c r="EU57" s="3"/>
+      <c r="EV57" s="3"/>
+      <c r="EW57" s="3"/>
+      <c r="EX57" s="3"/>
+      <c r="EY57" s="3"/>
+      <c r="EZ57" s="3"/>
+      <c r="FA57" s="3"/>
+      <c r="FB57" s="3"/>
+      <c r="FC57" s="3"/>
+      <c r="FD57" s="3"/>
+      <c r="FE57" s="3"/>
+      <c r="FF57" s="3"/>
+      <c r="FG57" s="3"/>
+      <c r="FH57" s="3"/>
+      <c r="FI57" s="3"/>
+      <c r="FJ57" s="3"/>
+      <c r="FK57" s="3"/>
+      <c r="FL57" s="3"/>
+      <c r="FM57" s="3"/>
+      <c r="FN57" s="3"/>
+      <c r="FO57" s="3"/>
+      <c r="FP57" s="3"/>
+      <c r="FQ57" s="3"/>
+      <c r="FR57" s="3"/>
+      <c r="FS57" s="3"/>
+      <c r="FT57" s="3"/>
+      <c r="FU57" s="3"/>
+      <c r="FV57" s="3"/>
+      <c r="FW57" s="3"/>
+      <c r="FX57" s="3"/>
+      <c r="FY57" s="3"/>
+      <c r="FZ57" s="3"/>
+      <c r="GA57" s="3"/>
+      <c r="GB57" s="3"/>
+      <c r="GC57" s="3"/>
+      <c r="GD57" s="3"/>
+      <c r="GE57" s="3"/>
+      <c r="GF57" s="3"/>
+      <c r="GG57" s="3"/>
+      <c r="GH57" s="3"/>
+      <c r="GI57" s="3"/>
+      <c r="GJ57" s="3"/>
+      <c r="GK57" s="3"/>
+      <c r="GL57" s="3"/>
+      <c r="GM57" s="3"/>
+      <c r="GN57" s="3"/>
+      <c r="GO57" s="3"/>
+      <c r="GP57" s="3"/>
+      <c r="GQ57" s="3"/>
+      <c r="GR57" s="3"/>
+      <c r="GS57" s="3"/>
+      <c r="GT57" s="3"/>
+      <c r="GU57" s="3"/>
+      <c r="GV57" s="3"/>
+      <c r="GW57" s="3"/>
+      <c r="GX57" s="3"/>
+      <c r="GY57" s="3"/>
+      <c r="GZ57" s="3"/>
+      <c r="HA57" s="3"/>
+      <c r="HB57" s="3"/>
+      <c r="HC57" s="3"/>
+      <c r="HD57" s="3"/>
+      <c r="HE57" s="3"/>
+      <c r="HF57" s="3"/>
+      <c r="HG57" s="3"/>
+      <c r="HH57" s="3"/>
+      <c r="HI57" s="3"/>
+      <c r="HJ57" s="3"/>
+      <c r="HK57" s="3"/>
+      <c r="HL57" s="3"/>
+      <c r="HM57" s="3"/>
+      <c r="HN57" s="3"/>
+      <c r="HO57" s="3"/>
+      <c r="HP57" s="3"/>
+      <c r="HQ57" s="3"/>
+      <c r="HR57" s="3"/>
+      <c r="HS57" s="3"/>
+      <c r="HT57" s="3"/>
+      <c r="HU57" s="3"/>
+      <c r="HV57" s="3"/>
+      <c r="HW57" s="3"/>
+      <c r="HX57" s="3"/>
+      <c r="HY57" s="3"/>
+      <c r="HZ57" s="3"/>
+      <c r="IA57" s="3"/>
+      <c r="IB57" s="3"/>
+      <c r="IC57" s="3"/>
+      <c r="ID57" s="3"/>
+      <c r="IE57" s="3"/>
+      <c r="IF57" s="3"/>
+      <c r="IG57" s="3"/>
+      <c r="IH57" s="3"/>
+      <c r="II57" s="3"/>
+      <c r="IJ57" s="3"/>
+      <c r="IK57" s="3"/>
+      <c r="IL57" s="3"/>
+      <c r="IM57" s="3"/>
+      <c r="IN57" s="3"/>
+      <c r="IO57" s="3"/>
+      <c r="IP57" s="3"/>
+      <c r="IQ57" s="3"/>
+      <c r="IR57" s="3"/>
+      <c r="IS57" s="3"/>
+      <c r="IT57" s="3"/>
+      <c r="IU57" s="3"/>
+      <c r="IV57" s="3"/>
+      <c r="IW57" s="3"/>
+      <c r="IX57" s="3"/>
+      <c r="IY57" s="3"/>
+      <c r="IZ57" s="3"/>
+      <c r="JA57" s="3"/>
+      <c r="JB57" s="3"/>
+      <c r="JC57" s="3"/>
+      <c r="JD57" s="3"/>
+      <c r="JE57" s="3"/>
+      <c r="JF57" s="3"/>
+      <c r="JG57" s="3"/>
+      <c r="JH57" s="3"/>
+      <c r="JI57" s="3"/>
+      <c r="JJ57" s="3"/>
+      <c r="JK57" s="3"/>
+      <c r="JL57" s="3"/>
+      <c r="JM57" s="3"/>
+      <c r="JN57" s="3"/>
+      <c r="JO57" s="3"/>
+      <c r="JP57" s="3"/>
+      <c r="JQ57" s="3"/>
+      <c r="JR57" s="3"/>
+      <c r="JS57" s="3"/>
+      <c r="JT57" s="3"/>
+      <c r="JU57" s="3"/>
+      <c r="JV57" s="3"/>
+      <c r="JW57" s="3"/>
+      <c r="JX57" s="3"/>
+      <c r="JY57" s="3"/>
+      <c r="JZ57" s="3"/>
+      <c r="KA57" s="3"/>
+      <c r="KB57" s="3"/>
+      <c r="KC57" s="3"/>
+      <c r="KD57" s="3"/>
+      <c r="KE57" s="3"/>
+      <c r="KF57" s="3"/>
+      <c r="KG57" s="3"/>
+      <c r="KH57" s="3"/>
+      <c r="KI57" s="3"/>
+      <c r="KJ57" s="3"/>
+      <c r="KK57" s="3"/>
+      <c r="KL57" s="3"/>
+      <c r="KM57" s="3"/>
+      <c r="KN57" s="3"/>
+      <c r="KO57" s="3"/>
+      <c r="KP57" s="3"/>
+      <c r="KQ57" s="3"/>
+      <c r="KR57" s="3"/>
+      <c r="KS57" s="3"/>
+      <c r="KT57" s="3"/>
+      <c r="KU57" s="3"/>
+      <c r="KV57" s="3"/>
+      <c r="KW57" s="3"/>
+      <c r="KX57" s="3"/>
+      <c r="KY57" s="3"/>
+      <c r="KZ57" s="3"/>
+      <c r="LA57" s="3"/>
+      <c r="LB57" s="3"/>
+      <c r="LC57" s="3"/>
+      <c r="LD57" s="3"/>
+      <c r="LE57" s="3"/>
+      <c r="LF57" s="3"/>
+      <c r="LG57" s="3"/>
+      <c r="LH57" s="3"/>
+      <c r="LI57" s="3"/>
+      <c r="LJ57" s="3"/>
+      <c r="LK57" s="3"/>
+      <c r="LL57" s="3"/>
+      <c r="LM57" s="3"/>
+      <c r="LN57" s="3"/>
+      <c r="LO57" s="3"/>
+      <c r="LP57" s="3"/>
+      <c r="LQ57" s="3"/>
+      <c r="LR57" s="3"/>
+      <c r="LS57" s="3"/>
+      <c r="LT57" s="3"/>
+      <c r="LU57" s="3"/>
+      <c r="LV57" s="3"/>
+      <c r="LW57" s="3"/>
+      <c r="LX57" s="3"/>
+      <c r="LY57" s="3"/>
+      <c r="LZ57" s="3"/>
+      <c r="MA57" s="3"/>
+      <c r="MB57" s="3"/>
+      <c r="MC57" s="3"/>
+      <c r="MD57" s="3"/>
+      <c r="ME57" s="3"/>
+      <c r="MF57" s="3"/>
+      <c r="MG57" s="3"/>
+      <c r="MH57" s="3"/>
+      <c r="MI57" s="3"/>
+      <c r="MJ57" s="3"/>
+      <c r="MK57" s="3"/>
+      <c r="ML57" s="3"/>
+      <c r="MM57" s="3"/>
+      <c r="MN57" s="3"/>
+      <c r="MO57" s="3"/>
+      <c r="MP57" s="3"/>
+      <c r="MQ57" s="3"/>
+      <c r="MR57" s="3"/>
+      <c r="MS57" s="3"/>
+      <c r="MT57" s="3"/>
+      <c r="MU57" s="3"/>
+      <c r="MV57" s="3"/>
+      <c r="MW57" s="3"/>
+      <c r="MX57" s="3"/>
+      <c r="MY57" s="3"/>
+      <c r="MZ57" s="3"/>
+      <c r="NA57" s="3"/>
+      <c r="NB57" s="3"/>
+      <c r="NC57" s="3"/>
+      <c r="ND57" s="3"/>
+      <c r="NE57" s="3"/>
+      <c r="NF57" s="3"/>
+      <c r="NG57" s="3"/>
+      <c r="NH57" s="3"/>
+      <c r="NI57" s="3"/>
+      <c r="NJ57" s="3"/>
+      <c r="NK57" s="3"/>
+      <c r="NL57" s="3"/>
+      <c r="NM57" s="3"/>
+      <c r="NN57" s="3"/>
+      <c r="NO57" s="3"/>
+      <c r="NP57" s="3"/>
+      <c r="NQ57" s="3"/>
+      <c r="NR57" s="3"/>
+      <c r="NS57" s="3"/>
+      <c r="NT57" s="3"/>
+      <c r="NU57" s="3"/>
+      <c r="NV57" s="3"/>
+      <c r="NW57" s="3"/>
+      <c r="NX57" s="3"/>
+      <c r="NY57" s="3"/>
+      <c r="NZ57" s="3"/>
+      <c r="OA57" s="3"/>
+      <c r="OB57" s="3"/>
+      <c r="OC57" s="3"/>
+      <c r="OD57" s="3"/>
+      <c r="OE57" s="3"/>
+      <c r="OF57" s="3"/>
+      <c r="OG57" s="3"/>
+      <c r="OH57" s="3"/>
+      <c r="OI57" s="3"/>
+      <c r="OJ57" s="3"/>
+      <c r="OK57" s="3"/>
+      <c r="OL57" s="3"/>
+      <c r="OM57" s="3"/>
+      <c r="ON57" s="3"/>
+      <c r="OO57" s="3"/>
+      <c r="OP57" s="3"/>
+      <c r="OQ57" s="3"/>
+      <c r="OR57" s="3"/>
+      <c r="OS57" s="3"/>
+      <c r="OT57" s="3"/>
+      <c r="OU57" s="3"/>
+      <c r="OV57" s="3"/>
+      <c r="OW57" s="3"/>
+      <c r="OX57" s="3"/>
+      <c r="OY57" s="3"/>
+      <c r="OZ57" s="3"/>
+      <c r="PA57" s="3"/>
+      <c r="PB57" s="3"/>
+      <c r="PC57" s="3"/>
+      <c r="PD57" s="3"/>
+      <c r="PE57" s="3"/>
+      <c r="PF57" s="3"/>
+      <c r="PG57" s="3"/>
+      <c r="PH57" s="3"/>
+      <c r="PI57" s="3"/>
+      <c r="PJ57" s="3"/>
+      <c r="PK57" s="3"/>
+      <c r="PL57" s="3"/>
+      <c r="PM57" s="3"/>
+      <c r="PN57" s="3"/>
+      <c r="PO57" s="3"/>
+      <c r="PP57" s="3"/>
+      <c r="PQ57" s="3"/>
+      <c r="PR57" s="3"/>
+      <c r="PS57" s="3"/>
+      <c r="PT57" s="3"/>
+      <c r="PU57" s="3"/>
+      <c r="PV57" s="3"/>
+      <c r="PW57" s="3"/>
+      <c r="PX57" s="3"/>
+      <c r="PY57" s="3"/>
+      <c r="PZ57" s="3"/>
+      <c r="QA57" s="3"/>
+      <c r="QB57" s="3"/>
+      <c r="QC57" s="3"/>
+      <c r="QD57" s="3"/>
+      <c r="QE57" s="3"/>
+      <c r="QF57" s="3"/>
+      <c r="QG57" s="3"/>
+      <c r="QH57" s="3"/>
+      <c r="QI57" s="3"/>
+      <c r="QJ57" s="3"/>
+      <c r="QK57" s="3"/>
+      <c r="QL57" s="3"/>
+      <c r="QM57" s="3"/>
+      <c r="QN57" s="3"/>
+      <c r="QO57" s="3"/>
+      <c r="QP57" s="3"/>
+      <c r="QQ57" s="3"/>
+      <c r="QR57" s="3"/>
+      <c r="QS57" s="3"/>
+      <c r="QT57" s="3"/>
+      <c r="QU57" s="3"/>
+      <c r="QV57" s="3"/>
+      <c r="QW57" s="3"/>
+      <c r="QX57" s="3"/>
+      <c r="QY57" s="3"/>
+      <c r="QZ57" s="3"/>
+      <c r="RA57" s="3"/>
+      <c r="RB57" s="3"/>
+      <c r="RC57" s="3"/>
+      <c r="RD57" s="3"/>
+      <c r="RE57" s="3"/>
+      <c r="RF57" s="3"/>
+      <c r="RG57" s="3"/>
+      <c r="RH57" s="3"/>
+      <c r="RI57" s="3"/>
+      <c r="RJ57" s="3"/>
+      <c r="RK57" s="3"/>
+      <c r="RL57" s="3"/>
+      <c r="RM57" s="3"/>
+      <c r="RN57" s="3"/>
+      <c r="RO57" s="3"/>
+      <c r="RP57" s="3"/>
+      <c r="RQ57" s="3"/>
+      <c r="RR57" s="3"/>
+      <c r="RS57" s="3"/>
+      <c r="RT57" s="3"/>
+      <c r="RU57" s="3"/>
+      <c r="RV57" s="3"/>
+      <c r="RW57" s="3"/>
+      <c r="RX57" s="3"/>
+      <c r="RY57" s="3"/>
+      <c r="RZ57" s="3"/>
+      <c r="SA57" s="3"/>
+      <c r="SB57" s="3"/>
+      <c r="SC57" s="3"/>
+      <c r="SD57" s="3"/>
+      <c r="SE57" s="3"/>
+      <c r="SF57" s="3"/>
+      <c r="SG57" s="3"/>
+      <c r="SH57" s="3"/>
+      <c r="SI57" s="3"/>
+      <c r="SJ57" s="3"/>
+      <c r="SK57" s="3"/>
+      <c r="SL57" s="3"/>
+      <c r="SM57" s="3"/>
+      <c r="SN57" s="3"/>
+      <c r="SO57" s="3"/>
+      <c r="SP57" s="3"/>
+      <c r="SQ57" s="3"/>
+      <c r="SR57" s="3"/>
+      <c r="SS57" s="3"/>
+      <c r="ST57" s="3"/>
+      <c r="SU57" s="3"/>
+      <c r="SV57" s="3"/>
+      <c r="SW57" s="3"/>
+      <c r="SX57" s="3"/>
+      <c r="SY57" s="3"/>
+      <c r="SZ57" s="3"/>
+      <c r="TA57" s="3"/>
+      <c r="TB57" s="3"/>
+      <c r="TC57" s="3"/>
+      <c r="TD57" s="3"/>
+      <c r="TE57" s="3"/>
+      <c r="TF57" s="3"/>
+      <c r="TG57" s="3"/>
+      <c r="TH57" s="3"/>
+      <c r="TI57" s="3"/>
+      <c r="TJ57" s="3"/>
+      <c r="TK57" s="3"/>
+      <c r="TL57" s="3"/>
+      <c r="TM57" s="3"/>
+      <c r="TN57" s="3"/>
+      <c r="TO57" s="3"/>
+      <c r="TP57" s="3"/>
+      <c r="TQ57" s="3"/>
+      <c r="TR57" s="3"/>
+      <c r="TS57" s="3"/>
+      <c r="TT57" s="3"/>
+      <c r="TU57" s="3"/>
+      <c r="TV57" s="3"/>
+      <c r="TW57" s="3"/>
+      <c r="TX57" s="3"/>
+      <c r="TY57" s="3"/>
+      <c r="TZ57" s="3"/>
+      <c r="UA57" s="3"/>
+      <c r="UB57" s="3"/>
+      <c r="UC57" s="3"/>
+      <c r="UD57" s="3"/>
+      <c r="UE57" s="3"/>
+      <c r="UF57" s="3"/>
+      <c r="UG57" s="3"/>
+      <c r="UH57" s="3"/>
+      <c r="UI57" s="3"/>
+      <c r="UJ57" s="3"/>
+      <c r="UK57" s="3"/>
+      <c r="UL57" s="3"/>
+      <c r="UM57" s="3"/>
+      <c r="UN57" s="3"/>
+      <c r="UO57" s="3"/>
+      <c r="UP57" s="3"/>
+      <c r="UQ57" s="3"/>
+      <c r="UR57" s="3"/>
+      <c r="US57" s="3"/>
+      <c r="UT57" s="3"/>
+      <c r="UU57" s="3"/>
+      <c r="UV57" s="3"/>
+      <c r="UW57" s="3"/>
+      <c r="UX57" s="3"/>
+      <c r="UY57" s="3"/>
+      <c r="UZ57" s="3"/>
+      <c r="VA57" s="3"/>
+      <c r="VB57" s="3"/>
+      <c r="VC57" s="3"/>
+      <c r="VD57" s="3"/>
+      <c r="VE57" s="3"/>
+      <c r="VF57" s="3"/>
+      <c r="VG57" s="3"/>
+      <c r="VH57" s="3"/>
+      <c r="VI57" s="3"/>
+      <c r="VJ57" s="3"/>
+      <c r="VK57" s="3"/>
+      <c r="VL57" s="3"/>
+      <c r="VM57" s="3"/>
+      <c r="VN57" s="3"/>
+      <c r="VO57" s="3"/>
+      <c r="VP57" s="3"/>
+      <c r="VQ57" s="3"/>
+      <c r="VR57" s="3"/>
+      <c r="VS57" s="3"/>
+      <c r="VT57" s="3"/>
+      <c r="VU57" s="3"/>
+      <c r="VV57" s="3"/>
+      <c r="VW57" s="3"/>
+      <c r="VX57" s="3"/>
+      <c r="VY57" s="3"/>
+      <c r="VZ57" s="3"/>
+      <c r="WA57" s="3"/>
+      <c r="WB57" s="3"/>
+      <c r="WC57" s="3"/>
+      <c r="WD57" s="3"/>
+      <c r="WE57" s="3"/>
+      <c r="WF57" s="3"/>
+      <c r="WG57" s="3"/>
+      <c r="WH57" s="3"/>
+      <c r="WI57" s="3"/>
+      <c r="WJ57" s="3"/>
+      <c r="WK57" s="3"/>
+      <c r="WL57" s="3"/>
+      <c r="WM57" s="3"/>
+      <c r="WN57" s="3"/>
+      <c r="WO57" s="3"/>
+      <c r="WP57" s="3"/>
+      <c r="WQ57" s="3"/>
+      <c r="WR57" s="3"/>
+      <c r="WS57" s="3"/>
+      <c r="WT57" s="3"/>
+      <c r="WU57" s="3"/>
+      <c r="WV57" s="3"/>
+      <c r="WW57" s="3"/>
+      <c r="WX57" s="3"/>
+      <c r="WY57" s="3"/>
+      <c r="WZ57" s="3"/>
+      <c r="XA57" s="3"/>
+      <c r="XB57" s="3"/>
+      <c r="XC57" s="3"/>
+      <c r="XD57" s="3"/>
+      <c r="XE57" s="3"/>
+      <c r="XF57" s="3"/>
+      <c r="XG57" s="3"/>
+      <c r="XH57" s="3"/>
+      <c r="XI57" s="3"/>
+      <c r="XJ57" s="3"/>
+      <c r="XK57" s="3"/>
+      <c r="XL57" s="3"/>
+      <c r="XM57" s="3"/>
+      <c r="XN57" s="3"/>
+      <c r="XO57" s="3"/>
+      <c r="XP57" s="3"/>
+      <c r="XQ57" s="3"/>
+      <c r="XR57" s="3"/>
+      <c r="XS57" s="3"/>
+      <c r="XT57" s="3"/>
+      <c r="XU57" s="3"/>
+      <c r="XV57" s="3"/>
+      <c r="XW57" s="3"/>
+      <c r="XX57" s="3"/>
+      <c r="XY57" s="3"/>
+      <c r="XZ57" s="3"/>
+      <c r="YA57" s="3"/>
+      <c r="YB57" s="3"/>
+      <c r="YC57" s="3"/>
+      <c r="YD57" s="3"/>
+      <c r="YE57" s="3"/>
+      <c r="YF57" s="3"/>
+      <c r="YG57" s="3"/>
+      <c r="YH57" s="3"/>
+      <c r="YI57" s="3"/>
+      <c r="YJ57" s="3"/>
+      <c r="YK57" s="3"/>
+      <c r="YL57" s="3"/>
+      <c r="YM57" s="3"/>
+      <c r="YN57" s="3"/>
+      <c r="YO57" s="3"/>
+      <c r="YP57" s="3"/>
+      <c r="YQ57" s="3"/>
+      <c r="YR57" s="3"/>
+      <c r="YS57" s="3"/>
+      <c r="YT57" s="3"/>
+      <c r="YU57" s="3"/>
+      <c r="YV57" s="3"/>
+      <c r="YW57" s="3"/>
+      <c r="YX57" s="3"/>
+      <c r="YY57" s="3"/>
+      <c r="YZ57" s="3"/>
+      <c r="ZA57" s="3"/>
+      <c r="ZB57" s="3"/>
+      <c r="ZC57" s="3"/>
+      <c r="ZD57" s="3"/>
+      <c r="ZE57" s="3"/>
+      <c r="ZF57" s="3"/>
+      <c r="ZG57" s="3"/>
+      <c r="ZH57" s="3"/>
+      <c r="ZI57" s="3"/>
+      <c r="ZJ57" s="3"/>
+      <c r="ZK57" s="3"/>
+      <c r="ZL57" s="3"/>
+      <c r="ZM57" s="3"/>
+      <c r="ZN57" s="3"/>
+      <c r="ZO57" s="3"/>
+      <c r="ZP57" s="3"/>
+      <c r="ZQ57" s="3"/>
+      <c r="ZR57" s="3"/>
+      <c r="ZS57" s="3"/>
+      <c r="ZT57" s="3"/>
+      <c r="ZU57" s="3"/>
+      <c r="ZV57" s="3"/>
+      <c r="ZW57" s="3"/>
+      <c r="ZX57" s="3"/>
+      <c r="ZY57" s="3"/>
+      <c r="ZZ57" s="3"/>
+      <c r="AAA57" s="3"/>
+      <c r="AAB57" s="3"/>
+      <c r="AAC57" s="3"/>
+      <c r="AAD57" s="3"/>
+      <c r="AAE57" s="3"/>
+      <c r="AAF57" s="3"/>
+      <c r="AAG57" s="3"/>
+      <c r="AAH57" s="3"/>
+      <c r="AAI57" s="3"/>
+      <c r="AAJ57" s="3"/>
+      <c r="AAK57" s="3"/>
+      <c r="AAL57" s="3"/>
+      <c r="AAM57" s="3"/>
+      <c r="AAN57" s="3"/>
+      <c r="AAO57" s="3"/>
+      <c r="AAP57" s="3"/>
+      <c r="AAQ57" s="3"/>
+      <c r="AAR57" s="3"/>
+      <c r="AAS57" s="3"/>
+      <c r="AAT57" s="3"/>
+      <c r="AAU57" s="3"/>
+      <c r="AAV57" s="3"/>
+      <c r="AAW57" s="3"/>
+      <c r="AAX57" s="3"/>
+      <c r="AAY57" s="3"/>
+      <c r="AAZ57" s="3"/>
+      <c r="ABA57" s="3"/>
+      <c r="ABB57" s="3"/>
+      <c r="ABC57" s="3"/>
+      <c r="ABD57" s="3"/>
+      <c r="ABE57" s="3"/>
+      <c r="ABF57" s="3"/>
+      <c r="ABG57" s="3"/>
+      <c r="ABH57" s="3"/>
+      <c r="ABI57" s="3"/>
+      <c r="ABJ57" s="3"/>
+      <c r="ABK57" s="3"/>
+      <c r="ABL57" s="3"/>
+      <c r="ABM57" s="3"/>
+      <c r="ABN57" s="3"/>
+      <c r="ABO57" s="3"/>
+      <c r="ABP57" s="3"/>
+      <c r="ABQ57" s="3"/>
+      <c r="ABR57" s="3"/>
+      <c r="ABS57" s="3"/>
+      <c r="ABT57" s="3"/>
+      <c r="ABU57" s="3"/>
+      <c r="ABV57" s="3"/>
+      <c r="ABW57" s="3"/>
+      <c r="ABX57" s="3"/>
+      <c r="ABY57" s="3"/>
+      <c r="ABZ57" s="3"/>
+      <c r="ACA57" s="3"/>
+      <c r="ACB57" s="3"/>
+      <c r="ACC57" s="3"/>
+      <c r="ACD57" s="3"/>
+      <c r="ACE57" s="3"/>
+      <c r="ACF57" s="3"/>
+      <c r="ACG57" s="3"/>
+      <c r="ACH57" s="3"/>
+      <c r="ACI57" s="3"/>
+      <c r="ACJ57" s="3"/>
+      <c r="ACK57" s="3"/>
+      <c r="ACL57" s="3"/>
+      <c r="ACM57" s="3"/>
+      <c r="ACN57" s="3"/>
+      <c r="ACO57" s="3"/>
+      <c r="ACP57" s="3"/>
+      <c r="ACQ57" s="3"/>
+      <c r="ACR57" s="3"/>
+      <c r="ACS57" s="3"/>
+      <c r="ACT57" s="3"/>
+      <c r="ACU57" s="3"/>
+      <c r="ACV57" s="3"/>
+      <c r="ACW57" s="3"/>
+      <c r="ACX57" s="3"/>
+      <c r="ACY57" s="3"/>
+      <c r="ACZ57" s="3"/>
+      <c r="ADA57" s="3"/>
+      <c r="ADB57" s="3"/>
+      <c r="ADC57" s="3"/>
+      <c r="ADD57" s="3"/>
+      <c r="ADE57" s="3"/>
+      <c r="ADF57" s="3"/>
+      <c r="ADG57" s="3"/>
+      <c r="ADH57" s="3"/>
+      <c r="ADI57" s="3"/>
+      <c r="ADJ57" s="3"/>
+      <c r="ADK57" s="3"/>
+      <c r="ADL57" s="3"/>
+      <c r="ADM57" s="3"/>
+      <c r="ADN57" s="3"/>
+      <c r="ADO57" s="3"/>
+      <c r="ADP57" s="3"/>
+      <c r="ADQ57" s="3"/>
+      <c r="ADR57" s="3"/>
+      <c r="ADS57" s="3"/>
+      <c r="ADT57" s="3"/>
+      <c r="ADU57" s="3"/>
+      <c r="ADV57" s="3"/>
+      <c r="ADW57" s="3"/>
+      <c r="ADX57" s="3"/>
+      <c r="ADY57" s="3"/>
+      <c r="ADZ57" s="3"/>
+      <c r="AEA57" s="3"/>
+      <c r="AEB57" s="3"/>
+      <c r="AEC57" s="3"/>
+      <c r="AED57" s="3"/>
+      <c r="AEE57" s="3"/>
+      <c r="AEF57" s="3"/>
+      <c r="AEG57" s="3"/>
+      <c r="AEH57" s="3"/>
+      <c r="AEI57" s="3"/>
+      <c r="AEJ57" s="3"/>
+      <c r="AEK57" s="3"/>
+      <c r="AEL57" s="3"/>
+      <c r="AEM57" s="3"/>
+      <c r="AEN57" s="3"/>
+      <c r="AEO57" s="3"/>
+      <c r="AEP57" s="3"/>
+      <c r="AEQ57" s="3"/>
+      <c r="AER57" s="3"/>
+      <c r="AES57" s="3"/>
+      <c r="AET57" s="3"/>
+      <c r="AEU57" s="3"/>
+      <c r="AEV57" s="3"/>
+      <c r="AEW57" s="3"/>
+      <c r="AEX57" s="3"/>
+      <c r="AEY57" s="3"/>
+      <c r="AEZ57" s="3"/>
+      <c r="AFA57" s="3"/>
+      <c r="AFB57" s="3"/>
+      <c r="AFC57" s="3"/>
+      <c r="AFD57" s="3"/>
+      <c r="AFE57" s="3"/>
+      <c r="AFF57" s="3"/>
+      <c r="AFG57" s="3"/>
+      <c r="AFH57" s="3"/>
+      <c r="AFI57" s="3"/>
+      <c r="AFJ57" s="3"/>
+      <c r="AFK57" s="3"/>
+      <c r="AFL57" s="3"/>
+      <c r="AFM57" s="3"/>
+      <c r="AFN57" s="3"/>
+      <c r="AFO57" s="3"/>
+      <c r="AFP57" s="3"/>
+      <c r="AFQ57" s="3"/>
+      <c r="AFR57" s="3"/>
+      <c r="AFS57" s="3"/>
+      <c r="AFT57" s="3"/>
+      <c r="AFU57" s="3"/>
+      <c r="AFV57" s="3"/>
+      <c r="AFW57" s="3"/>
+      <c r="AFX57" s="3"/>
+      <c r="AFY57" s="3"/>
+      <c r="AFZ57" s="3"/>
+      <c r="AGA57" s="3"/>
+      <c r="AGB57" s="3"/>
+      <c r="AGC57" s="3"/>
+      <c r="AGD57" s="3"/>
+      <c r="AGE57" s="3"/>
+      <c r="AGF57" s="3"/>
+      <c r="AGG57" s="3"/>
+      <c r="AGH57" s="3"/>
+      <c r="AGI57" s="3"/>
+      <c r="AGJ57" s="3"/>
+      <c r="AGK57" s="3"/>
+      <c r="AGL57" s="3"/>
+      <c r="AGM57" s="3"/>
+      <c r="AGN57" s="3"/>
+      <c r="AGO57" s="3"/>
+      <c r="AGP57" s="3"/>
+      <c r="AGQ57" s="3"/>
+      <c r="AGR57" s="3"/>
+      <c r="AGS57" s="3"/>
+      <c r="AGT57" s="3"/>
+      <c r="AGU57" s="3"/>
+      <c r="AGV57" s="3"/>
+      <c r="AGW57" s="3"/>
+      <c r="AGX57" s="3"/>
+      <c r="AGY57" s="3"/>
+      <c r="AGZ57" s="3"/>
+      <c r="AHA57" s="3"/>
+      <c r="AHB57" s="3"/>
+      <c r="AHC57" s="3"/>
+      <c r="AHD57" s="3"/>
+      <c r="AHE57" s="3"/>
+      <c r="AHF57" s="3"/>
+      <c r="AHG57" s="3"/>
+      <c r="AHH57" s="3"/>
+      <c r="AHI57" s="3"/>
+      <c r="AHJ57" s="3"/>
+      <c r="AHK57" s="3"/>
+      <c r="AHL57" s="3"/>
+      <c r="AHM57" s="3"/>
+      <c r="AHN57" s="3"/>
+      <c r="AHO57" s="3"/>
+      <c r="AHP57" s="3"/>
+      <c r="AHQ57" s="3"/>
+      <c r="AHR57" s="3"/>
+      <c r="AHS57" s="3"/>
+      <c r="AHT57" s="3"/>
+      <c r="AHU57" s="3"/>
+      <c r="AHV57" s="3"/>
+      <c r="AHW57" s="3"/>
+      <c r="AHX57" s="3"/>
+      <c r="AHY57" s="3"/>
+      <c r="AHZ57" s="3"/>
+      <c r="AIA57" s="3"/>
+      <c r="AIB57" s="3"/>
+      <c r="AIC57" s="3"/>
+      <c r="AID57" s="3"/>
+      <c r="AIE57" s="3"/>
+      <c r="AIF57" s="3"/>
+      <c r="AIG57" s="3"/>
+      <c r="AIH57" s="3"/>
+      <c r="AII57" s="3"/>
+      <c r="AIJ57" s="3"/>
+      <c r="AIK57" s="3"/>
+      <c r="AIL57" s="3"/>
+      <c r="AIM57" s="3"/>
+      <c r="AIN57" s="3"/>
+      <c r="AIO57" s="3"/>
+      <c r="AIP57" s="3"/>
+      <c r="AIQ57" s="3"/>
+      <c r="AIR57" s="3"/>
+      <c r="AIS57" s="3"/>
+      <c r="AIT57" s="3"/>
+      <c r="AIU57" s="3"/>
+      <c r="AIV57" s="3"/>
+      <c r="AIW57" s="3"/>
+      <c r="AIX57" s="3"/>
+      <c r="AIY57" s="3"/>
+      <c r="AIZ57" s="3"/>
+      <c r="AJA57" s="3"/>
+      <c r="AJB57" s="3"/>
+      <c r="AJC57" s="3"/>
+      <c r="AJD57" s="3"/>
+      <c r="AJE57" s="3"/>
+      <c r="AJF57" s="3"/>
+      <c r="AJG57" s="3"/>
+      <c r="AJH57" s="3"/>
+      <c r="AJI57" s="3"/>
+      <c r="AJJ57" s="3"/>
+      <c r="AJK57" s="3"/>
+      <c r="AJL57" s="3"/>
+      <c r="AJM57" s="3"/>
+      <c r="AJN57" s="3"/>
+      <c r="AJO57" s="3"/>
+      <c r="AJP57" s="3"/>
+      <c r="AJQ57" s="3"/>
+      <c r="AJR57" s="3"/>
+      <c r="AJS57" s="3"/>
+      <c r="AJT57" s="3"/>
+      <c r="AJU57" s="3"/>
+      <c r="AJV57" s="3"/>
+      <c r="AJW57" s="3"/>
+      <c r="AJX57" s="3"/>
+      <c r="AJY57" s="3"/>
+      <c r="AJZ57" s="3"/>
+      <c r="AKA57" s="3"/>
+      <c r="AKB57" s="3"/>
+      <c r="AKC57" s="3"/>
+      <c r="AKD57" s="3"/>
+      <c r="AKE57" s="3"/>
+      <c r="AKF57" s="3"/>
+      <c r="AKG57" s="3"/>
+      <c r="AKH57" s="3"/>
+      <c r="AKI57" s="3"/>
+      <c r="AKJ57" s="3"/>
+      <c r="AKK57" s="3"/>
+      <c r="AKL57" s="3"/>
+      <c r="AKM57" s="3"/>
+      <c r="AKN57" s="3"/>
+      <c r="AKO57" s="3"/>
+      <c r="AKP57" s="3"/>
+      <c r="AKQ57" s="3"/>
+      <c r="AKR57" s="3"/>
+      <c r="AKS57" s="3"/>
+      <c r="AKT57" s="3"/>
+      <c r="AKU57" s="3"/>
+      <c r="AKV57" s="3"/>
+      <c r="AKW57" s="3"/>
+      <c r="AKX57" s="3"/>
+      <c r="AKY57" s="3"/>
+      <c r="AKZ57" s="3"/>
+      <c r="ALA57" s="3"/>
+      <c r="ALB57" s="3"/>
+      <c r="ALC57" s="3"/>
+      <c r="ALD57" s="3"/>
+      <c r="ALE57" s="3"/>
+      <c r="ALF57" s="3"/>
+      <c r="ALG57" s="3"/>
+      <c r="ALH57" s="3"/>
+      <c r="ALI57" s="3"/>
+      <c r="ALJ57" s="3"/>
+      <c r="ALK57" s="3"/>
+      <c r="ALL57" s="3"/>
+      <c r="ALM57" s="3"/>
+      <c r="ALN57" s="3"/>
+      <c r="ALO57" s="3"/>
+      <c r="ALP57" s="3"/>
+      <c r="ALQ57" s="3"/>
+      <c r="ALR57" s="3"/>
+      <c r="ALS57" s="3"/>
+      <c r="ALT57" s="3"/>
+      <c r="ALU57" s="3"/>
+      <c r="ALV57" s="3"/>
+      <c r="ALW57" s="3"/>
+      <c r="ALX57" s="3"/>
+      <c r="ALY57" s="3"/>
+      <c r="ALZ57" s="3"/>
+      <c r="AMA57" s="3"/>
+      <c r="AMB57" s="3"/>
+      <c r="AMC57" s="3"/>
+      <c r="AMD57" s="3"/>
+      <c r="AME57" s="10"/>
+      <c r="AMF57" s="10"/>
+      <c r="AMG57" s="10"/>
+      <c r="AMH57" s="10"/>
+      <c r="AMI57" s="10"/>
+      <c r="AMJ57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="AME58" s="11"/>
-      <c r="AMF58" s="11"/>
-      <c r="AMG58" s="11"/>
-      <c r="AMH58" s="11"/>
-      <c r="AMI58" s="11"/>
-      <c r="AMJ58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="AME58" s="10"/>
+      <c r="AMF58" s="10"/>
+      <c r="AMG58" s="10"/>
+      <c r="AMH58" s="10"/>
+      <c r="AMI58" s="10"/>
+      <c r="AMJ58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="AME59" s="11"/>
-      <c r="AMF59" s="11"/>
-      <c r="AMG59" s="11"/>
-      <c r="AMH59" s="11"/>
-      <c r="AMI59" s="11"/>
-      <c r="AMJ59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="AME59" s="10"/>
+      <c r="AMF59" s="10"/>
+      <c r="AMG59" s="10"/>
+      <c r="AMH59" s="10"/>
+      <c r="AMI59" s="10"/>
+      <c r="AMJ59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
@@ -2975,401 +3661,423 @@
       <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="AME60" s="11"/>
-      <c r="AMF60" s="11"/>
-      <c r="AMG60" s="11"/>
-      <c r="AMH60" s="11"/>
-      <c r="AMI60" s="11"/>
-      <c r="AMJ60" s="11"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="AME60" s="10"/>
+      <c r="AMF60" s="10"/>
+      <c r="AMG60" s="10"/>
+      <c r="AMH60" s="10"/>
+      <c r="AMI60" s="10"/>
+      <c r="AMJ60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="AME61" s="11"/>
-      <c r="AMF61" s="11"/>
-      <c r="AMG61" s="11"/>
-      <c r="AMH61" s="11"/>
-      <c r="AMI61" s="11"/>
-      <c r="AMJ61" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="AME61" s="10"/>
+      <c r="AMF61" s="10"/>
+      <c r="AMG61" s="10"/>
+      <c r="AMH61" s="10"/>
+      <c r="AMI61" s="10"/>
+      <c r="AMJ61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="13" t="s">
         <v>122</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E62" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="AME62" s="11"/>
-      <c r="AMF62" s="11"/>
-      <c r="AMG62" s="11"/>
-      <c r="AMH62" s="11"/>
-      <c r="AMI62" s="11"/>
-      <c r="AMJ62" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="AME62" s="10"/>
+      <c r="AMF62" s="10"/>
+      <c r="AMG62" s="10"/>
+      <c r="AMH62" s="10"/>
+      <c r="AMI62" s="10"/>
+      <c r="AMJ62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="13" t="s">
         <v>125</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E63" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="AME63" s="11"/>
-      <c r="AMF63" s="11"/>
-      <c r="AMG63" s="11"/>
-      <c r="AMH63" s="11"/>
-      <c r="AMI63" s="11"/>
-      <c r="AMJ63" s="11"/>
+        <v>127</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="AME63" s="10"/>
+      <c r="AMF63" s="10"/>
+      <c r="AMG63" s="10"/>
+      <c r="AMH63" s="10"/>
+      <c r="AMI63" s="10"/>
+      <c r="AMJ63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="13" t="s">
         <v>128</v>
       </c>
+      <c r="C64" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E64" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="AME64" s="11"/>
-      <c r="AMF64" s="11"/>
-      <c r="AMG64" s="11"/>
-      <c r="AMH64" s="11"/>
-      <c r="AMI64" s="11"/>
-      <c r="AMJ64" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="AME64" s="10"/>
+      <c r="AMF64" s="10"/>
+      <c r="AMG64" s="10"/>
+      <c r="AMH64" s="10"/>
+      <c r="AMI64" s="10"/>
+      <c r="AMJ64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="13" t="s">
         <v>131</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E65" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="AME65" s="11"/>
-      <c r="AMF65" s="11"/>
-      <c r="AMG65" s="11"/>
-      <c r="AMH65" s="11"/>
-      <c r="AMI65" s="11"/>
-      <c r="AMJ65" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="AME65" s="10"/>
+      <c r="AMF65" s="10"/>
+      <c r="AMG65" s="10"/>
+      <c r="AMH65" s="10"/>
+      <c r="AMI65" s="10"/>
+      <c r="AMJ65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="12" t="s">
         <v>134</v>
       </c>
+      <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E66" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="AME66" s="11"/>
-      <c r="AMF66" s="11"/>
-      <c r="AMG66" s="11"/>
-      <c r="AMH66" s="11"/>
-      <c r="AMI66" s="11"/>
-      <c r="AMJ66" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="AME66" s="10"/>
+      <c r="AMF66" s="10"/>
+      <c r="AMG66" s="10"/>
+      <c r="AMH66" s="10"/>
+      <c r="AMI66" s="10"/>
+      <c r="AMJ66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="12" t="s">
         <v>137</v>
       </c>
+      <c r="C67" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E67" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="AME67" s="11"/>
-      <c r="AMF67" s="11"/>
-      <c r="AMG67" s="11"/>
-      <c r="AMH67" s="11"/>
-      <c r="AMI67" s="11"/>
-      <c r="AMJ67" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="AME67" s="10"/>
+      <c r="AMF67" s="10"/>
+      <c r="AMG67" s="10"/>
+      <c r="AMH67" s="10"/>
+      <c r="AMI67" s="10"/>
+      <c r="AMJ67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E68" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="AME68" s="11"/>
-      <c r="AMF68" s="11"/>
-      <c r="AMG68" s="11"/>
-      <c r="AMH68" s="11"/>
-      <c r="AMI68" s="11"/>
-      <c r="AMJ68" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="AME68" s="10"/>
+      <c r="AMF68" s="10"/>
+      <c r="AMG68" s="10"/>
+      <c r="AMH68" s="10"/>
+      <c r="AMI68" s="10"/>
+      <c r="AMJ68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="AME69" s="11"/>
-      <c r="AMF69" s="11"/>
-      <c r="AMG69" s="11"/>
-      <c r="AMH69" s="11"/>
-      <c r="AMI69" s="11"/>
-      <c r="AMJ69" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="AME69" s="10"/>
+      <c r="AMF69" s="10"/>
+      <c r="AMG69" s="10"/>
+      <c r="AMH69" s="10"/>
+      <c r="AMI69" s="10"/>
+      <c r="AMJ69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="AME70" s="11"/>
-      <c r="AMF70" s="11"/>
-      <c r="AMG70" s="11"/>
-      <c r="AMH70" s="11"/>
-      <c r="AMI70" s="11"/>
-      <c r="AMJ70" s="11"/>
-    </row>
-    <row r="71" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="AME70" s="10"/>
+      <c r="AMF70" s="10"/>
+      <c r="AMG70" s="10"/>
+      <c r="AMH70" s="10"/>
+      <c r="AMI70" s="10"/>
+      <c r="AMJ70" s="10"/>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="14" t="s">
         <v>147</v>
       </c>
+      <c r="C71" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="14"/>
+      <c r="F71" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="15"/>
@@ -3396,13 +4104,12 @@
         <v>62</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D72" s="14"/>
-      <c r="E72" s="12"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -3520,336 +4227,336 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="23.23"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-    </row>
-    <row r="2" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+    </row>
+    <row r="2" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+    </row>
+    <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-    </row>
-    <row r="4" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="C3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+    </row>
+    <row r="4" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-    </row>
-    <row r="6" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-    </row>
-    <row r="7" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+    </row>
+    <row r="7" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-    </row>
-    <row r="8" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="C7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+    </row>
+    <row r="8" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+    </row>
+    <row r="9" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-    </row>
-    <row r="9" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="C11" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>169</v>
+      <c r="C12" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3876,86 +4583,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="37.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="37.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="28.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="AMJ1" s="13"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C2" s="20" t="str">
+        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2024-07-08  13-43</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="AMJ1" s="20"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="19" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-05-13  13-59</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="AMJ2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="AMJ2" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
